--- a/Sports/Results/Networks_Evolution.xlsx
+++ b/Sports/Results/Networks_Evolution.xlsx
@@ -12,8 +12,8 @@
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16720" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="out_degree_evo" sheetId="1" r:id="rId1"/>
-    <sheet name="in_degree_evo" sheetId="2" r:id="rId2"/>
+    <sheet name="out_degree_top10" sheetId="1" r:id="rId1"/>
+    <sheet name="in_degree_top10" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="99">
   <si>
     <t>user_id</t>
   </si>
@@ -115,6 +115,213 @@
   </si>
   <si>
     <t>MASTERMIND_ED</t>
+  </si>
+  <si>
+    <t>2012-08-29T05:20:36.517</t>
+  </si>
+  <si>
+    <t>2016-03-02T10:01:31.277</t>
+  </si>
+  <si>
+    <t>http://www.ihavenowebsite.in</t>
+  </si>
+  <si>
+    <t>Chennai, India</t>
+  </si>
+  <si>
+    <t>2012-06-06T14:41:30.650</t>
+  </si>
+  <si>
+    <t>2016-03-04T23:46:32.510</t>
+  </si>
+  <si>
+    <t>2013-10-12T12:12:16.993</t>
+  </si>
+  <si>
+    <t>2016-03-05T18:55:55.633</t>
+  </si>
+  <si>
+    <t>http://stackexchange.com/</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>2013-09-16T00:32:14.370</t>
+  </si>
+  <si>
+    <t>2016-03-04T00:11:24.053</t>
+  </si>
+  <si>
+    <t>New York, New York</t>
+  </si>
+  <si>
+    <t>2012-03-29T20:50:45.693</t>
+  </si>
+  <si>
+    <t>2016-03-02T15:07:28.233</t>
+  </si>
+  <si>
+    <t>Lund, Sweden</t>
+  </si>
+  <si>
+    <t>2012-02-09T00:10:29.710</t>
+  </si>
+  <si>
+    <t>2016-01-13T03:21:45.650</t>
+  </si>
+  <si>
+    <t>http://hire.chrisjlee.net</t>
+  </si>
+  <si>
+    <t>Plano, Texas</t>
+  </si>
+  <si>
+    <t>2013-03-29T09:13:09.663</t>
+  </si>
+  <si>
+    <t>2016-03-04T21:56:39.517</t>
+  </si>
+  <si>
+    <t>2013-11-03T15:25:34.397</t>
+  </si>
+  <si>
+    <t>2016-02-28T21:09:08.773</t>
+  </si>
+  <si>
+    <t>2012-06-11T08:47:47.470</t>
+  </si>
+  <si>
+    <t>2016-03-04T12:19:31.037</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/u/1369235</t>
+  </si>
+  <si>
+    <t>Mumbai, India</t>
+  </si>
+  <si>
+    <t>betweenness</t>
+  </si>
+  <si>
+    <t>closeness</t>
+  </si>
+  <si>
+    <t>in_degree</t>
+  </si>
+  <si>
+    <t>out_degree</t>
+  </si>
+  <si>
+    <t>eccentricity</t>
+  </si>
+  <si>
+    <t>X_Reputation</t>
+  </si>
+  <si>
+    <t>X_CreationDate</t>
+  </si>
+  <si>
+    <t>X_LastAccessDate</t>
+  </si>
+  <si>
+    <t>X_WebsiteUrl</t>
+  </si>
+  <si>
+    <t>X_Location</t>
+  </si>
+  <si>
+    <t>X_Views</t>
+  </si>
+  <si>
+    <t>X_UpVotes</t>
+  </si>
+  <si>
+    <t>X_DownVotes</t>
+  </si>
+  <si>
+    <t>X_AccountId</t>
+  </si>
+  <si>
+    <t>2013-09-10T15:43:58.747</t>
+  </si>
+  <si>
+    <t>2016-03-05T23:17:32.753</t>
+  </si>
+  <si>
+    <t>2012-02-08T19:59:22.947</t>
+  </si>
+  <si>
+    <t>2016-03-06T02:56:29.110</t>
+  </si>
+  <si>
+    <t>http://none</t>
+  </si>
+  <si>
+    <t>Lookout Mountain, GA</t>
+  </si>
+  <si>
+    <t>2014-08-15T21:47:52.963</t>
+  </si>
+  <si>
+    <t>2016-03-04T20:23:57.883</t>
+  </si>
+  <si>
+    <t>2014-07-17T09:09:11.043</t>
+  </si>
+  <si>
+    <t>2016-03-05T21:25:24.827</t>
+  </si>
+  <si>
+    <t>http://www.flickr.com/photos/pak21/</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>2012-02-08T20:05:10.763</t>
+  </si>
+  <si>
+    <t>2016-03-04T01:44:23.927</t>
+  </si>
+  <si>
+    <t>http://goldenslam.com</t>
+  </si>
+  <si>
+    <t>Surprise, AZ</t>
+  </si>
+  <si>
+    <t>2012-04-10T12:23:06.637</t>
+  </si>
+  <si>
+    <t>2016-02-10T07:48:00.127</t>
+  </si>
+  <si>
+    <t>http://None</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>2012-02-08T22:10:58.300</t>
+  </si>
+  <si>
+    <t>2016-02-12T18:32:52.920</t>
+  </si>
+  <si>
+    <t>http://localhost</t>
+  </si>
+  <si>
+    <t>2012-10-12T13:29:28.193</t>
+  </si>
+  <si>
+    <t>2015-07-04T09:37:11.437</t>
+  </si>
+  <si>
+    <t>http://http:</t>
+  </si>
+  <si>
+    <t>Bangalore, India</t>
   </si>
 </sst>
 </file>
@@ -150,8 +357,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -248,7 +456,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>out_degree_evo!$C$1</c:f>
+              <c:f>out_degree_top10!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -328,7 +536,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>out_degree_evo!$B$2:$B$11</c:f>
+              <c:f>out_degree_top10!$B$2:$B$11</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -366,7 +574,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>out_degree_evo!$C$2:$C$11</c:f>
+              <c:f>out_degree_top10!$C$2:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -409,7 +617,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>out_degree_evo!$D$1</c:f>
+              <c:f>out_degree_top10!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -489,7 +697,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>out_degree_evo!$B$2:$B$11</c:f>
+              <c:f>out_degree_top10!$B$2:$B$11</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -527,7 +735,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>out_degree_evo!$D$2:$D$11</c:f>
+              <c:f>out_degree_top10!$D$2:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -570,7 +778,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>out_degree_evo!$E$1</c:f>
+              <c:f>out_degree_top10!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -650,7 +858,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>out_degree_evo!$B$2:$B$11</c:f>
+              <c:f>out_degree_top10!$B$2:$B$11</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -688,7 +896,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>out_degree_evo!$E$2:$E$11</c:f>
+              <c:f>out_degree_top10!$E$2:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -731,7 +939,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>out_degree_evo!$F$1</c:f>
+              <c:f>out_degree_top10!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -811,7 +1019,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>out_degree_evo!$B$2:$B$11</c:f>
+              <c:f>out_degree_top10!$B$2:$B$11</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -849,7 +1057,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>out_degree_evo!$F$2:$F$11</c:f>
+              <c:f>out_degree_top10!$F$2:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -892,7 +1100,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>out_degree_evo!$G$1</c:f>
+              <c:f>out_degree_top10!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -972,7 +1180,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>out_degree_evo!$B$2:$B$11</c:f>
+              <c:f>out_degree_top10!$B$2:$B$11</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -1010,7 +1218,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>out_degree_evo!$G$2:$G$11</c:f>
+              <c:f>out_degree_top10!$G$2:$G$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1357,7 +1565,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>in_degree_evo!$C$1</c:f>
+              <c:f>in_degree_top10!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1437,7 +1645,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>in_degree_evo!$B$2:$B$11</c:f>
+              <c:f>in_degree_top10!$B$2:$B$11</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -1475,7 +1683,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>in_degree_evo!$C$2:$C$11</c:f>
+              <c:f>in_degree_top10!$C$2:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1518,7 +1726,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>in_degree_evo!$D$1</c:f>
+              <c:f>in_degree_top10!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1598,7 +1806,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>in_degree_evo!$B$2:$B$11</c:f>
+              <c:f>in_degree_top10!$B$2:$B$11</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -1636,7 +1844,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>in_degree_evo!$D$2:$D$11</c:f>
+              <c:f>in_degree_top10!$D$2:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1679,7 +1887,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>in_degree_evo!$E$1</c:f>
+              <c:f>in_degree_top10!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1759,7 +1967,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>in_degree_evo!$B$2:$B$11</c:f>
+              <c:f>in_degree_top10!$B$2:$B$11</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -1797,7 +2005,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>in_degree_evo!$E$2:$E$11</c:f>
+              <c:f>in_degree_top10!$E$2:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1840,7 +2048,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>in_degree_evo!$F$1</c:f>
+              <c:f>in_degree_top10!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1920,7 +2128,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>in_degree_evo!$B$2:$B$11</c:f>
+              <c:f>in_degree_top10!$B$2:$B$11</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -1958,7 +2166,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>in_degree_evo!$F$2:$F$11</c:f>
+              <c:f>in_degree_top10!$F$2:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2001,7 +2209,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>in_degree_evo!$G$1</c:f>
+              <c:f>in_degree_top10!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2081,7 +2289,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>in_degree_evo!$B$2:$B$11</c:f>
+              <c:f>in_degree_top10!$B$2:$B$11</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -2119,7 +2327,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>in_degree_evo!$G$2:$G$11</c:f>
+              <c:f>in_degree_top10!$G$2:$G$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3562,15 +3770,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>571499</xdr:colOff>
+      <xdr:colOff>1117599</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1104900</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1155700</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3598,14 +3806,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>196850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>174531</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>1358900</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3890,10 +4098,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3905,9 +4113,17 @@
     <col min="5" max="5" width="15.83203125" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="16.6640625" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1"/>
+    <col min="12" max="12" width="14.5" customWidth="1"/>
+    <col min="13" max="13" width="25" customWidth="1"/>
+    <col min="14" max="14" width="24.5" customWidth="1"/>
+    <col min="15" max="15" width="35.33203125" customWidth="1"/>
+    <col min="16" max="16" width="19.5" customWidth="1"/>
+    <col min="19" max="19" width="16.1640625" customWidth="1"/>
+    <col min="20" max="20" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3929,8 +4145,47 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>68</v>
+      </c>
+      <c r="R1" t="s">
+        <v>69</v>
+      </c>
+      <c r="S1" t="s">
+        <v>70</v>
+      </c>
+      <c r="T1" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>527</v>
       </c>
@@ -3952,8 +4207,41 @@
       <c r="G2">
         <v>38</v>
       </c>
+      <c r="H2">
+        <v>51800.740599117402</v>
+      </c>
+      <c r="I2" s="1">
+        <v>2.95140221119054E-6</v>
+      </c>
+      <c r="J2">
+        <v>70</v>
+      </c>
+      <c r="K2">
+        <v>5</v>
+      </c>
+      <c r="L2">
+        <v>8280</v>
+      </c>
+      <c r="M2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2">
+        <v>419</v>
+      </c>
+      <c r="R2">
+        <v>1085</v>
+      </c>
+      <c r="S2">
+        <v>525</v>
+      </c>
+      <c r="T2">
+        <v>1136283</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1723</v>
       </c>
@@ -3975,8 +4263,41 @@
       <c r="G3">
         <v>0</v>
       </c>
+      <c r="H3">
+        <v>17908.966544548701</v>
+      </c>
+      <c r="I3" s="1">
+        <v>2.9496697844676299E-6</v>
+      </c>
+      <c r="J3">
+        <v>9</v>
+      </c>
+      <c r="K3">
+        <v>5</v>
+      </c>
+      <c r="L3">
+        <v>4886</v>
+      </c>
+      <c r="M3" t="s">
+        <v>72</v>
+      </c>
+      <c r="N3" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q3">
+        <v>105</v>
+      </c>
+      <c r="R3">
+        <v>973</v>
+      </c>
+      <c r="S3">
+        <v>40</v>
+      </c>
+      <c r="T3">
+        <v>2693867</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>6</v>
       </c>
@@ -3998,8 +4319,47 @@
       <c r="G4">
         <v>20</v>
       </c>
+      <c r="H4">
+        <v>18518.2423444138</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2.9517593961881001E-6</v>
+      </c>
+      <c r="J4">
+        <v>9</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+      <c r="L4">
+        <v>6901</v>
+      </c>
+      <c r="M4" t="s">
+        <v>74</v>
+      </c>
+      <c r="N4" t="s">
+        <v>75</v>
+      </c>
+      <c r="O4" t="s">
+        <v>76</v>
+      </c>
+      <c r="P4" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q4">
+        <v>199</v>
+      </c>
+      <c r="R4">
+        <v>512</v>
+      </c>
+      <c r="S4">
+        <v>95</v>
+      </c>
+      <c r="T4">
+        <v>12878</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>6232</v>
       </c>
@@ -4021,8 +4381,41 @@
       <c r="G5">
         <v>0</v>
       </c>
+      <c r="H5">
+        <v>8642.3375868766507</v>
+      </c>
+      <c r="I5" s="1">
+        <v>2.9495740815026302E-6</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>5164</v>
+      </c>
+      <c r="M5" t="s">
+        <v>78</v>
+      </c>
+      <c r="N5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q5">
+        <v>42</v>
+      </c>
+      <c r="R5">
+        <v>370</v>
+      </c>
+      <c r="S5">
+        <v>70</v>
+      </c>
+      <c r="T5">
+        <v>1780022</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6126</v>
       </c>
@@ -4044,8 +4437,47 @@
       <c r="G6">
         <v>0</v>
       </c>
+      <c r="H6">
+        <v>490</v>
+      </c>
+      <c r="I6" s="1">
+        <v>3.1465043909468798E-6</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6">
+        <v>5419</v>
+      </c>
+      <c r="M6" t="s">
+        <v>80</v>
+      </c>
+      <c r="N6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" t="s">
+        <v>82</v>
+      </c>
+      <c r="P6" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q6">
+        <v>85</v>
+      </c>
+      <c r="R6">
+        <v>461</v>
+      </c>
+      <c r="S6">
+        <v>424</v>
+      </c>
+      <c r="T6">
+        <v>249156</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>18</v>
       </c>
@@ -4067,8 +4499,47 @@
       <c r="G7">
         <v>16</v>
       </c>
+      <c r="H7">
+        <v>3610.8687822495399</v>
+      </c>
+      <c r="I7" s="1">
+        <v>2.9487738998124599E-6</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>6</v>
+      </c>
+      <c r="L7">
+        <v>6329</v>
+      </c>
+      <c r="M7" t="s">
+        <v>84</v>
+      </c>
+      <c r="N7" t="s">
+        <v>85</v>
+      </c>
+      <c r="O7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q7">
+        <v>99</v>
+      </c>
+      <c r="R7">
+        <v>409</v>
+      </c>
+      <c r="S7">
+        <v>26</v>
+      </c>
+      <c r="T7">
+        <v>48435</v>
+      </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>385</v>
       </c>
@@ -4090,8 +4561,47 @@
       <c r="G8">
         <v>37</v>
       </c>
+      <c r="H8">
+        <v>7180.9064366436996</v>
+      </c>
+      <c r="I8" s="1">
+        <v>2.9458378257360201E-6</v>
+      </c>
+      <c r="J8">
+        <v>20</v>
+      </c>
+      <c r="K8">
+        <v>6</v>
+      </c>
+      <c r="L8">
+        <v>4787</v>
+      </c>
+      <c r="M8" t="s">
+        <v>54</v>
+      </c>
+      <c r="N8" t="s">
+        <v>55</v>
+      </c>
+      <c r="O8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q8">
+        <v>195</v>
+      </c>
+      <c r="R8">
+        <v>357</v>
+      </c>
+      <c r="S8">
+        <v>227</v>
+      </c>
+      <c r="T8">
+        <v>1452838</v>
+      </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>540</v>
       </c>
@@ -4113,8 +4623,47 @@
       <c r="G9">
         <v>0</v>
       </c>
+      <c r="H9">
+        <v>7961.8712392016796</v>
+      </c>
+      <c r="I9" s="1">
+        <v>2.9498351042176701E-6</v>
+      </c>
+      <c r="J9">
+        <v>10</v>
+      </c>
+      <c r="K9">
+        <v>6</v>
+      </c>
+      <c r="L9">
+        <v>5729</v>
+      </c>
+      <c r="M9" t="s">
+        <v>88</v>
+      </c>
+      <c r="N9" t="s">
+        <v>89</v>
+      </c>
+      <c r="O9" t="s">
+        <v>90</v>
+      </c>
+      <c r="P9" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q9">
+        <v>143</v>
+      </c>
+      <c r="R9">
+        <v>701</v>
+      </c>
+      <c r="S9">
+        <v>186</v>
+      </c>
+      <c r="T9">
+        <v>466742</v>
+      </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>61</v>
       </c>
@@ -4136,8 +4685,44 @@
       <c r="G10">
         <v>35</v>
       </c>
+      <c r="H10">
+        <v>10621.295333352</v>
+      </c>
+      <c r="I10" s="1">
+        <v>2.9494783847476601E-6</v>
+      </c>
+      <c r="J10">
+        <v>10</v>
+      </c>
+      <c r="K10">
+        <v>6</v>
+      </c>
+      <c r="L10">
+        <v>4987</v>
+      </c>
+      <c r="M10" t="s">
+        <v>92</v>
+      </c>
+      <c r="N10" t="s">
+        <v>93</v>
+      </c>
+      <c r="O10" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q10">
+        <v>49</v>
+      </c>
+      <c r="R10">
+        <v>715</v>
+      </c>
+      <c r="S10">
+        <v>65</v>
+      </c>
+      <c r="T10">
+        <v>482832</v>
+      </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>857</v>
       </c>
@@ -4158,6 +4743,45 @@
       </c>
       <c r="G11">
         <v>15</v>
+      </c>
+      <c r="H11">
+        <v>1606.1822063213101</v>
+      </c>
+      <c r="I11" s="1">
+        <v>2.9449616124253802E-6</v>
+      </c>
+      <c r="J11">
+        <v>7</v>
+      </c>
+      <c r="K11">
+        <v>7</v>
+      </c>
+      <c r="L11">
+        <v>3803</v>
+      </c>
+      <c r="M11" t="s">
+        <v>95</v>
+      </c>
+      <c r="N11" t="s">
+        <v>96</v>
+      </c>
+      <c r="O11" t="s">
+        <v>97</v>
+      </c>
+      <c r="P11" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q11">
+        <v>110</v>
+      </c>
+      <c r="R11">
+        <v>604</v>
+      </c>
+      <c r="S11">
+        <v>38</v>
+      </c>
+      <c r="T11">
+        <v>1901516</v>
       </c>
     </row>
   </sheetData>
@@ -4168,10 +4792,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4182,9 +4806,16 @@
     <col min="5" max="5" width="19.6640625" customWidth="1"/>
     <col min="6" max="6" width="18.83203125" customWidth="1"/>
     <col min="7" max="7" width="16.6640625" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
+    <col min="13" max="13" width="26" customWidth="1"/>
+    <col min="14" max="14" width="26.5" customWidth="1"/>
+    <col min="15" max="15" width="33.33203125" customWidth="1"/>
+    <col min="16" max="16" width="19.5" customWidth="1"/>
+    <col min="19" max="19" width="15.6640625" customWidth="1"/>
+    <col min="20" max="20" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4206,8 +4837,47 @@
       <c r="G1" t="s">
         <v>20</v>
       </c>
+      <c r="H1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>68</v>
+      </c>
+      <c r="R1" t="s">
+        <v>69</v>
+      </c>
+      <c r="S1" t="s">
+        <v>70</v>
+      </c>
+      <c r="T1" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>753</v>
       </c>
@@ -4229,8 +4899,47 @@
       <c r="G2">
         <v>19</v>
       </c>
+      <c r="H2">
+        <v>9450.0858534223898</v>
+      </c>
+      <c r="I2" s="1">
+        <v>2.94484019824664E-6</v>
+      </c>
+      <c r="J2">
+        <v>22</v>
+      </c>
+      <c r="K2">
+        <v>6</v>
+      </c>
+      <c r="L2">
+        <v>4551</v>
+      </c>
+      <c r="M2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2">
+        <v>309</v>
+      </c>
+      <c r="R2">
+        <v>921</v>
+      </c>
+      <c r="S2">
+        <v>96</v>
+      </c>
+      <c r="T2">
+        <v>394477</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>527</v>
       </c>
@@ -4252,8 +4961,41 @@
       <c r="G3">
         <v>29</v>
       </c>
+      <c r="H3">
+        <v>51800.740599117402</v>
+      </c>
+      <c r="I3" s="1">
+        <v>2.95140221119054E-6</v>
+      </c>
+      <c r="J3">
+        <v>85</v>
+      </c>
+      <c r="K3">
+        <v>5</v>
+      </c>
+      <c r="L3">
+        <v>8280</v>
+      </c>
+      <c r="M3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q3">
+        <v>419</v>
+      </c>
+      <c r="R3">
+        <v>1085</v>
+      </c>
+      <c r="S3">
+        <v>525</v>
+      </c>
+      <c r="T3">
+        <v>1136283</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1831</v>
       </c>
@@ -4275,8 +5017,47 @@
       <c r="G4">
         <v>0</v>
       </c>
+      <c r="H4">
+        <v>13084.222237653499</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2.9458898944193101E-6</v>
+      </c>
+      <c r="J4">
+        <v>7</v>
+      </c>
+      <c r="K4">
+        <v>6</v>
+      </c>
+      <c r="L4">
+        <v>1820</v>
+      </c>
+      <c r="M4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" t="s">
+        <v>38</v>
+      </c>
+      <c r="P4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q4">
+        <v>31</v>
+      </c>
+      <c r="R4">
+        <v>578</v>
+      </c>
+      <c r="S4">
+        <v>12</v>
+      </c>
+      <c r="T4">
+        <v>1599147</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1738</v>
       </c>
@@ -4298,8 +5079,44 @@
       <c r="G5">
         <v>0</v>
       </c>
+      <c r="H5">
+        <v>366</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1.35997802275515E-6</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>1715</v>
+      </c>
+      <c r="M5" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q5">
+        <v>42</v>
+      </c>
+      <c r="R5">
+        <v>91</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>512193</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>364</v>
       </c>
@@ -4321,8 +5138,44 @@
       <c r="G6">
         <v>16</v>
       </c>
+      <c r="H6">
+        <v>10021.1692656005</v>
+      </c>
+      <c r="I6" s="1">
+        <v>2.9478003513778001E-6</v>
+      </c>
+      <c r="J6">
+        <v>24</v>
+      </c>
+      <c r="K6">
+        <v>6</v>
+      </c>
+      <c r="L6">
+        <v>4095</v>
+      </c>
+      <c r="M6" t="s">
+        <v>43</v>
+      </c>
+      <c r="N6" t="s">
+        <v>44</v>
+      </c>
+      <c r="P6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q6">
+        <v>66</v>
+      </c>
+      <c r="R6">
+        <v>552</v>
+      </c>
+      <c r="S6">
+        <v>22</v>
+      </c>
+      <c r="T6">
+        <v>129863</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>75</v>
       </c>
@@ -4344,8 +5197,47 @@
       <c r="G7">
         <v>18</v>
       </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1.35681160128192E-6</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>6</v>
+      </c>
+      <c r="L7">
+        <v>1475</v>
+      </c>
+      <c r="M7" t="s">
+        <v>46</v>
+      </c>
+      <c r="N7" t="s">
+        <v>47</v>
+      </c>
+      <c r="O7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q7">
+        <v>25</v>
+      </c>
+      <c r="R7">
+        <v>152</v>
+      </c>
+      <c r="S7">
+        <v>4</v>
+      </c>
+      <c r="T7">
+        <v>57165</v>
+      </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1237</v>
       </c>
@@ -4367,8 +5259,41 @@
       <c r="G8">
         <v>0</v>
       </c>
+      <c r="H8">
+        <v>5034.9001607350801</v>
+      </c>
+      <c r="I8" s="1">
+        <v>2.9419984995807598E-6</v>
+      </c>
+      <c r="J8">
+        <v>10</v>
+      </c>
+      <c r="K8">
+        <v>6</v>
+      </c>
+      <c r="L8">
+        <v>1966</v>
+      </c>
+      <c r="M8" t="s">
+        <v>50</v>
+      </c>
+      <c r="N8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q8">
+        <v>59</v>
+      </c>
+      <c r="R8">
+        <v>607</v>
+      </c>
+      <c r="S8">
+        <v>11</v>
+      </c>
+      <c r="T8">
+        <v>267077</v>
+      </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1898</v>
       </c>
@@ -4390,8 +5315,41 @@
       <c r="G9">
         <v>0</v>
       </c>
+      <c r="H9">
+        <v>87.245297805642593</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1.35839296678458E-6</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>6</v>
+      </c>
+      <c r="L9">
+        <v>732</v>
+      </c>
+      <c r="M9" t="s">
+        <v>52</v>
+      </c>
+      <c r="N9" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>65</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>3370439</v>
+      </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>540</v>
       </c>
@@ -4413,8 +5371,47 @@
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>7180.9064366436996</v>
+      </c>
+      <c r="I10" s="1">
+        <v>2.9458378257360201E-6</v>
+      </c>
+      <c r="J10">
+        <v>51</v>
+      </c>
+      <c r="K10">
+        <v>6</v>
+      </c>
+      <c r="L10">
+        <v>4787</v>
+      </c>
+      <c r="M10" t="s">
+        <v>54</v>
+      </c>
+      <c r="N10" t="s">
+        <v>55</v>
+      </c>
+      <c r="O10" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q10">
+        <v>195</v>
+      </c>
+      <c r="R10">
+        <v>357</v>
+      </c>
+      <c r="S10">
+        <v>227</v>
+      </c>
+      <c r="T10">
+        <v>1452838</v>
+      </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1455</v>
       </c>
